--- a/Project/AutoTourism/Business Model/Revenue Cost Model.xlsx
+++ b/Project/AutoTourism/Business Model/Revenue Cost Model.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
@@ -13,7 +13,7 @@
     <sheet name="Cost - Benifit" sheetId="1" r:id="rId4"/>
     <sheet name="Cumulative" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -241,8 +241,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_([$INR]\ * #,##0.00_);_([$INR]\ * \(#,##0.00\);_([$INR]\ * &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_([$INR]\ * #,##0.00_);_([$INR]\ * \(#,##0.00\);_([$INR]\ * &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -858,90 +858,114 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="17" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="41" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="41" fontId="1" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -961,30 +985,6 @@
     </xf>
     <xf numFmtId="3" fontId="1" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1030,7 +1030,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-IN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1113,7 +1113,7 @@
             <c:numRef>
               <c:f>'Cost - Benifit'!$B$19:$M$19</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"_);_(@_)</c:formatCode>
+                <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"_-;_-@_-</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>76000</c:v>
@@ -1222,7 +1222,7 @@
             <c:numRef>
               <c:f>'Cost - Benifit'!$B$20:$M$20</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"_);_(@_)</c:formatCode>
+                <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"_-;_-@_-</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>18000</c:v>
@@ -1275,11 +1275,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="116304896"/>
-        <c:axId val="121963264"/>
+        <c:axId val="104493824"/>
+        <c:axId val="104495360"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="116304896"/>
+        <c:axId val="104493824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1290,14 +1290,14 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121963264"/>
+        <c:crossAx val="104495360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="121963264"/>
+        <c:axId val="104495360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1322,11 +1322,11 @@
           </c:tx>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)" sourceLinked="1"/>
+        <c:numFmt formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116304896"/>
+        <c:crossAx val="104493824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1360,7 +1360,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-IN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1575,7 +1575,7 @@
             <c:numRef>
               <c:f>Cumulative!$B$22:$M$22</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"_);_(@_)</c:formatCode>
+                <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"_-;_-@_-</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>76000</c:v>
@@ -1684,7 +1684,7 @@
             <c:numRef>
               <c:f>Cumulative!$B$23:$M$23</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"_);_(@_)</c:formatCode>
+                <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"_-;_-@_-</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>18000</c:v>
@@ -1737,11 +1737,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="122043776"/>
-        <c:axId val="122045568"/>
+        <c:axId val="105202816"/>
+        <c:axId val="105204352"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="122043776"/>
+        <c:axId val="105202816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1751,25 +1751,25 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122045568"/>
+        <c:crossAx val="105204352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="122045568"/>
+        <c:axId val="105204352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)" sourceLinked="1"/>
+        <c:numFmt formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122043776"/>
+        <c:crossAx val="105202816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2181,134 +2181,134 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E2" s="79" t="s">
+      <c r="E2" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="79"/>
-      <c r="G2" s="80" t="s">
+      <c r="F2" s="77"/>
+      <c r="G2" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
-      <c r="N2" s="80"/>
-      <c r="O2" s="81" t="s">
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="78"/>
+      <c r="N2" s="78"/>
+      <c r="O2" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="P2" s="81"/>
-      <c r="Q2" s="81"/>
-      <c r="R2" s="81"/>
-      <c r="S2" s="81"/>
-      <c r="T2" s="81"/>
-      <c r="U2" s="81"/>
-      <c r="V2" s="81"/>
-      <c r="W2" s="82" t="s">
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="79"/>
+      <c r="T2" s="79"/>
+      <c r="U2" s="79"/>
+      <c r="V2" s="79"/>
+      <c r="W2" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="X2" s="82"/>
-      <c r="Y2" s="82"/>
-      <c r="Z2" s="82"/>
-      <c r="AA2" s="82"/>
-      <c r="AB2" s="82"/>
-      <c r="AC2" s="82"/>
-      <c r="AD2" s="82"/>
-      <c r="AE2" s="85" t="s">
+      <c r="X2" s="80"/>
+      <c r="Y2" s="80"/>
+      <c r="Z2" s="80"/>
+      <c r="AA2" s="80"/>
+      <c r="AB2" s="80"/>
+      <c r="AC2" s="80"/>
+      <c r="AD2" s="80"/>
+      <c r="AE2" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="AF2" s="85"/>
-      <c r="AG2" s="85"/>
-      <c r="AH2" s="85"/>
-      <c r="AI2" s="85"/>
-      <c r="AJ2" s="85"/>
-      <c r="AK2" s="85"/>
-      <c r="AL2" s="85"/>
+      <c r="AF2" s="73"/>
+      <c r="AG2" s="73"/>
+      <c r="AH2" s="73"/>
+      <c r="AI2" s="73"/>
+      <c r="AJ2" s="73"/>
+      <c r="AK2" s="73"/>
+      <c r="AL2" s="73"/>
     </row>
     <row r="3" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="75" t="s">
+      <c r="C3" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="77" t="s">
+      <c r="D3" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="71" t="s">
+      <c r="E3" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="72"/>
-      <c r="G3" s="71" t="s">
+      <c r="F3" s="75"/>
+      <c r="G3" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="72"/>
-      <c r="I3" s="71" t="s">
+      <c r="H3" s="75"/>
+      <c r="I3" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="72"/>
-      <c r="K3" s="71" t="s">
+      <c r="J3" s="75"/>
+      <c r="K3" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="72"/>
-      <c r="M3" s="71" t="s">
+      <c r="L3" s="75"/>
+      <c r="M3" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="N3" s="72"/>
-      <c r="O3" s="71" t="s">
+      <c r="N3" s="75"/>
+      <c r="O3" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="P3" s="72"/>
-      <c r="Q3" s="71" t="s">
+      <c r="P3" s="75"/>
+      <c r="Q3" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="R3" s="72"/>
-      <c r="S3" s="71" t="s">
+      <c r="R3" s="75"/>
+      <c r="S3" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="T3" s="72"/>
-      <c r="U3" s="71" t="s">
+      <c r="T3" s="75"/>
+      <c r="U3" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="V3" s="72"/>
-      <c r="W3" s="71" t="s">
+      <c r="V3" s="75"/>
+      <c r="W3" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="X3" s="72"/>
-      <c r="Y3" s="71" t="s">
+      <c r="X3" s="75"/>
+      <c r="Y3" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="Z3" s="72"/>
-      <c r="AA3" s="71" t="s">
+      <c r="Z3" s="75"/>
+      <c r="AA3" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="AB3" s="72"/>
-      <c r="AC3" s="71" t="s">
+      <c r="AB3" s="75"/>
+      <c r="AC3" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="AD3" s="72"/>
-      <c r="AE3" s="71" t="s">
+      <c r="AD3" s="75"/>
+      <c r="AE3" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="AF3" s="72"/>
-      <c r="AG3" s="71" t="s">
+      <c r="AF3" s="75"/>
+      <c r="AG3" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="AH3" s="72"/>
-      <c r="AI3" s="71" t="s">
+      <c r="AH3" s="75"/>
+      <c r="AI3" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="AJ3" s="72"/>
-      <c r="AK3" s="71" t="s">
+      <c r="AJ3" s="75"/>
+      <c r="AK3" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="AL3" s="86"/>
+      <c r="AL3" s="76"/>
     </row>
     <row r="4" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="74"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="78"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="86"/>
       <c r="E4" s="18" t="s">
         <v>13</v>
       </c>
@@ -3385,7 +3385,7 @@
       <c r="AK17" s="24">
         <v>20000</v>
       </c>
-      <c r="AL17" s="83">
+      <c r="AL17" s="71">
         <v>5000</v>
       </c>
     </row>
@@ -3464,7 +3464,7 @@
       <c r="AK18" s="15">
         <v>8000</v>
       </c>
-      <c r="AL18" s="84"/>
+      <c r="AL18" s="72"/>
     </row>
     <row r="19" spans="2:38" x14ac:dyDescent="0.25">
       <c r="E19" s="4">
@@ -3654,15 +3654,23 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="AF17:AF18"/>
-    <mergeCell ref="AH17:AH18"/>
-    <mergeCell ref="AJ17:AJ18"/>
-    <mergeCell ref="AL17:AL18"/>
-    <mergeCell ref="AE2:AL2"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="Z17:Z18"/>
+    <mergeCell ref="AB17:AB18"/>
+    <mergeCell ref="AD17:AD18"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="E3:F3"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:N2"/>
     <mergeCell ref="O2:V2"/>
@@ -3679,23 +3687,15 @@
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AD3"/>
     <mergeCell ref="X17:X18"/>
-    <mergeCell ref="Z17:Z18"/>
-    <mergeCell ref="AB17:AB18"/>
-    <mergeCell ref="AD17:AD18"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="AF17:AF18"/>
+    <mergeCell ref="AH17:AH18"/>
+    <mergeCell ref="AJ17:AJ18"/>
+    <mergeCell ref="AL17:AL18"/>
+    <mergeCell ref="AE2:AL2"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="AK3:AL3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3706,8 +3706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="K29" s="42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L29" s="42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M29" s="43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P29" t="s">
         <v>51</v>
@@ -4976,19 +4976,19 @@
       </c>
       <c r="K31" s="57">
         <f t="shared" ref="K31" si="60">K29*K30</f>
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="L31" s="57">
         <f t="shared" ref="L31" si="61">L29*L30</f>
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="M31" s="58">
         <f t="shared" ref="M31" si="62">M29*M30</f>
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="N31" s="31">
         <f>SUM(F31:M31)*-1</f>
-        <v>-88000</v>
+        <v>-112000</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
@@ -5328,19 +5328,19 @@
       </c>
       <c r="K40" s="45">
         <f t="shared" si="75"/>
-        <v>566800</v>
+        <v>574800</v>
       </c>
       <c r="L40" s="45">
         <f t="shared" si="75"/>
-        <v>376000</v>
+        <v>384000</v>
       </c>
       <c r="M40" s="46">
         <f t="shared" si="75"/>
-        <v>376000</v>
+        <v>384000</v>
       </c>
       <c r="N40" s="64">
         <f>SUM(B40:M40)</f>
-        <v>2810600</v>
+        <v>2834600</v>
       </c>
       <c r="O40" s="31"/>
     </row>
@@ -5383,19 +5383,19 @@
       </c>
       <c r="K41" s="45">
         <f t="shared" si="76"/>
-        <v>1451200</v>
+        <v>1443200</v>
       </c>
       <c r="L41" s="45">
         <f t="shared" si="76"/>
-        <v>504000</v>
+        <v>496000</v>
       </c>
       <c r="M41" s="46">
         <f t="shared" si="76"/>
-        <v>474000</v>
+        <v>466000</v>
       </c>
       <c r="N41" s="63">
         <f>SUM(B41:M41)</f>
-        <v>3663400</v>
+        <v>3639400</v>
       </c>
       <c r="O41" s="31"/>
     </row>
